--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:03:08+00:00</t>
+    <t>2024-12-23T15:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:06:22+00:00</t>
+    <t>2024-12-23T15:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:21:49+00:00</t>
+    <t>2024-12-23T15:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-2-unique.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:22:28+00:00</t>
+    <t>2024-12-23T15:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -652,9 +652,6 @@
     <t>The code system SHALL be the UCD code system</t>
   </si>
   <si>
-    <t>^http:\/\/phast\.fr\/fhir\/ValueSet\/Pharmacy\/CIOdc\/SIPh-CIO_UCD$</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -831,7 +828,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-frmed-med-2:If fr-medication is an othter-medication, its code SHALL NOT be UCD {coding.system != 'http://phast.fr/fhir/ValueSet/Pharmacy/CIOdc/SIPh-CIO_UCD'}frmed-med-3:If fr-medication is a other-medication, its code SHALL NOT be SNOMED CT {coding.system != 'http://snomed.info/sct'}frmed-med-4:if fr-medication has no code it SHALL have a text {coding.code.exist() or text.exist()}</t>
+frmed-med-2:If fr-medication is an othter-medication, its code SHALL NOT be UCD {null}frmed-med-3:If fr-medication is a other-medication, its code SHALL NOT be SNOMED CT {coding.system != 'http://snomed.info/sct'}frmed-med-4:if fr-medication has no code it SHALL have a text {coding.code.exist() or text.exist()}</t>
   </si>
   <si>
     <t>Medication.code.text</t>
@@ -3573,46 +3570,46 @@
         <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3630,21 +3627,21 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3670,13 +3667,13 @@
         <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3726,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3744,21 +3741,21 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3784,14 +3781,14 @@
         <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3819,28 +3816,28 @@
         <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3858,21 +3855,21 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3898,14 +3895,14 @@
         <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3954,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3972,21 +3969,21 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4009,19 +4006,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4070,7 +4067,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4088,24 +4085,24 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>20</v>
@@ -4168,7 +4165,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>192</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>194</v>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>196</v>
@@ -4470,16 +4467,16 @@
         <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4489,7 +4486,7 @@
         <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>20</v>
@@ -4528,7 +4525,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4546,21 +4543,21 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4586,13 +4583,13 @@
         <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4642,7 +4639,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4660,21 +4657,21 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4700,14 +4697,14 @@
         <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4735,7 +4732,7 @@
         <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>20</v>
@@ -4756,7 +4753,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4774,21 +4771,21 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4814,14 +4811,14 @@
         <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4870,7 +4867,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4888,21 +4885,21 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4925,19 +4922,19 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -4986,7 +4983,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5004,24 +5001,24 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5046,10 +5043,10 @@
         <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>178</v>
@@ -5116,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5133,10 +5130,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5162,16 +5159,16 @@
         <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5220,7 +5217,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5238,21 +5235,21 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5278,13 +5275,13 @@
         <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5313,11 +5310,11 @@
         <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5334,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5352,7 +5349,7 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5363,10 +5360,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5389,13 +5386,13 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5446,7 +5443,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5461,24 +5458,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5504,13 +5501,13 @@
         <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5539,11 +5536,11 @@
         <v>155</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5575,24 +5572,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5615,13 +5612,13 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5672,7 +5669,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5690,7 +5687,7 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5701,10 +5698,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5727,16 +5724,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5786,7 +5783,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5804,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5815,10 +5812,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5927,10 +5924,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6041,14 +6038,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6070,10 +6067,10 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>135</v>
@@ -6128,7 +6125,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6157,10 +6154,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6183,17 +6180,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6242,7 +6239,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6260,21 +6257,21 @@
         <v>158</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6297,17 +6294,17 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6356,7 +6353,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6374,7 +6371,7 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6385,10 +6382,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6411,13 +6408,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6468,7 +6465,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6483,24 +6480,24 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6523,13 +6520,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6580,7 +6577,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6595,10 +6592,10 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6609,10 +6606,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6721,10 +6718,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6835,14 +6832,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6864,10 +6861,10 @@
         <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>135</v>
@@ -6922,7 +6919,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6951,10 +6948,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6980,10 +6977,10 @@
         <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7034,7 +7031,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7049,7 +7046,7 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>148</v>
@@ -7058,15 +7055,15 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7089,13 +7086,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7146,7 +7143,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7161,16 +7158,16 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
